--- a/Doc/iteration1/CS673_ProgressReport_team2.xlsx
+++ b/Doc/iteration1/CS673_ProgressReport_team2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -312,6 +312,21 @@
     <t>5 - caught up</t>
   </si>
   <si>
+    <t>5/24 - 05/31</t>
+  </si>
+  <si>
+    <t>0 - did more research about the different testing frameworks and which one would be best with our current stack, learned React components unit testing
+4 - Set up Jest testing framework for front-end + back-end</t>
+  </si>
+  <si>
+    <t>Did STD
+Updated SPPP</t>
+  </si>
+  <si>
+    <t>Write tests
+Setup Continuous Testing</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -395,7 +410,10 @@
 Studied distributed system concepts and design patterns and analyze our application for design patterns</t>
   </si>
   <si>
-    <t>--</t>
+    <t xml:space="preserve">5 All team members were not familiar with each others work and stack so we spent some time syncing on these items5 </t>
+  </si>
+  <si>
+    <t>5 - Adjusted scheduled and meeting plans accordingly to allow for extra time</t>
   </si>
   <si>
     <t xml:space="preserve">2 - Add polishing touches and CSS to frontend and focus on backend optimization
@@ -508,9 +526,6 @@
 </t>
   </si>
   <si>
-    <t>5/24 - 05/31</t>
-  </si>
-  <si>
     <t>0 - read styled-components documentation, study MVC architecture, study sequence diagrams
 1 - Update requirements in SPP: add color system, followup alert and customizable configurations. Rewrite Usability
 2 - degin UI mockups and write SDD UI design section 
@@ -610,14 +625,16 @@
 7-demo for the iteration1 project</t>
   </si>
   <si>
-    <t>1. SDD: class digram part and UI design</t>
+    <t>1. SDD: class digram part and UI design
+2. demo video</t>
   </si>
   <si>
     <t>1.did not manage my time well because this week is the first week of my summer intern 
 2.did not communcate with teammember well on backend parts</t>
   </si>
   <si>
-    <t>arrange my time well and communate with team member more</t>
+    <t>1.arrange my time well and communate with team member more
+2. Weekly meeting will be in the early week day.</t>
   </si>
   <si>
     <t xml:space="preserve">-Work on backend
@@ -8359,11 +8376,11 @@
         <v>52</v>
       </c>
       <c r="C4" s="19">
-        <f t="shared" ref="C4:C5" si="1">D4+E4</f>
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>10</v>
       </c>
       <c r="D4" s="19">
-        <f t="shared" ref="D4:D5" si="2">sum(G4:N4)</f>
+        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>6</v>
       </c>
       <c r="E4" s="22">
@@ -8456,19 +8473,49 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="7">
+        <v>20.0</v>
+      </c>
       <c r="T6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -12740,7 +12787,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -12836,7 +12883,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G4" s="22">
         <v>5.0</v>
@@ -12853,16 +12900,16 @@
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S4" s="22">
         <v>10.0</v>
@@ -12887,7 +12934,7 @@
         <v>24.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7">
         <v>5.0</v>
@@ -12914,16 +12961,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -12935,7 +12982,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8">
         <v>12.0</v>
@@ -12948,7 +12995,7 @@
         <v>24.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" s="7">
         <v>6.0</v>
@@ -12975,16 +13022,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S6" s="7">
         <v>8.0</v>
@@ -17263,7 +17310,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -17367,7 +17414,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G4" s="22">
         <v>1.0</v>
@@ -17388,14 +17435,14 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P4" s="22">
         <v>1.0</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S4" s="22">
         <v>8.0</v>
@@ -22143,7 +22190,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -22247,7 +22294,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="22">
         <v>5.0</v>
@@ -22266,16 +22313,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S4" s="22">
         <v>10.0</v>
@@ -22293,7 +22340,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C5" s="23">
         <f t="shared" si="1"/>
@@ -22307,7 +22354,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7">
         <v>3.0</v>
@@ -22326,16 +22373,16 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -22349,7 +22396,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="1"/>
@@ -22363,7 +22410,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -22386,16 +22433,16 @@
         <v>0.5</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="S6" s="7">
         <v>15.0</v>
@@ -27103,7 +27150,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -27207,7 +27254,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G4" s="22">
         <v>2.0</v>
@@ -27224,16 +27271,16 @@
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S4" s="22">
         <v>15.0</v>
@@ -27251,7 +27298,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" s="19">
         <f t="shared" si="1"/>
@@ -27265,7 +27312,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G5" s="22">
         <v>2.0</v>
@@ -27287,13 +27334,13 @@
       <c r="N5" s="19"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S5" s="22">
         <v>20.0</v>
@@ -27307,21 +27354,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="19">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="22">
         <v>2.5</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G6" s="22">
         <v>3.0</v>
@@ -27338,18 +27385,20 @@
       <c r="M6" s="22">
         <v>0.5</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="22">
+        <v>0.5</v>
+      </c>
       <c r="O6" s="22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S6" s="22">
         <v>15.0</v>

--- a/Doc/iteration1/CS673_ProgressReport_team2.xlsx
+++ b/Doc/iteration1/CS673_ProgressReport_team2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -130,6 +130,33 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>05/17-05/23</t>
+  </si>
+  <si>
+    <t>Completion of base framework for backend and frontend</t>
+  </si>
+  <si>
+    <t>Integration issues with auth0 implementation</t>
+  </si>
+  <si>
+    <t>Learning for ndoejs framework</t>
+  </si>
+  <si>
+    <t>Faster share of resources</t>
+  </si>
+  <si>
+    <t>5/24 - 05/31</t>
+  </si>
+  <si>
+    <t>Integration of Auth0 ,Migrations for database structure</t>
+  </si>
+  <si>
+    <t>Dependency issues with nodejsjs and auth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync up timing </t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -297,9 +324,6 @@
 6 - Set up test environment</t>
   </si>
   <si>
-    <t>05/17-05/23</t>
-  </si>
-  <si>
     <t>0 - studied course material, did quiz 1 and lab 2
 1 - wrote 2 user stories (Add a Job to track, Update Job)
 4 - did research on Selenium and started playing with unit tests
@@ -310,9 +334,6 @@
   </si>
   <si>
     <t>5 - caught up</t>
-  </si>
-  <si>
-    <t>5/24 - 05/31</t>
   </si>
   <si>
     <t>0 - did more research about the different testing frameworks and which one would be best with our current stack, learned React components unit testing
@@ -454,6 +475,49 @@
     <t>0- Cleaner framework for setting node environment,Research how to perform integration testing
 2 - Create base structure for nodejs environment and mock database
 4 - setup nodejs cleaner</t>
+  </si>
+  <si>
+    <t>0 -  Research and setup zest framework 
+2 - Completed System Design Work on backend and created a level design of the flow of the application and the system
+3 - Setup the backend server and implemented JWT authentication backend
+4 - Tested some REST Routes and tested all of the implementation efforts I was involved with
+5 - Connected with some other teammates and collaborated on the Dev environment and planned next work to be done
+6 - Updated Progress Report and tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPPP Prgress Report, Contributions to sections from SPPP for Team
+Implementation and Design 
+Set up Backend Server in AWS Account , setup NodeJS and mySQL on the Server
+Implemented Auth and setup starter template for Project 
+Created branch on Github and pushed code </t>
+  </si>
+  <si>
+    <t>5 Explaining backend code took a while,Estabilishing migrations was a little harder than initially though</t>
+  </si>
+  <si>
+    <t>5 - Sharing a of resources</t>
+  </si>
+  <si>
+    <t>0 - Did some learning on Design Patterns , Caching , Distributed Architecture , and basic unit tests
+2 - Reviewed /Restructured backend implementations
+3 - Continued with implementation for backend and created up REST API's
+5 - Communicated some future plans and suggestions with the rest of the team and expressed some concerns</t>
+  </si>
+  <si>
+    <t>Contributed to SPPP and Database design.
+Studied distributed system concepts and design patterns and analyze our application for design patterns</t>
+  </si>
+  <si>
+    <t>5 Schedule was hectic this week so didn't have time to sync with team mates</t>
+  </si>
+  <si>
+    <t>5 - Re adjust team meeting time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Full Integration with frontend and backend
+3 - Setup and integrate all API Routes and integrate with Frontend Logic , Add Test cases annd deploy 
+4 - Validate unit tests are setup correctly and give correct results
+5- Focus on deployment and making sure users can access application </t>
   </si>
   <si>
     <r>
@@ -693,7 +757,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +768,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -753,6 +823,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -793,7 +864,9 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1228,15 +1301,148 @@
       <c r="A5" s="6">
         <v>1.0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>(BenoitClemenceau!C5+ChinmayBhelke!C5+BharatGogineni!C5+TainaConde!C5+RuiqiChang!C5)</f>
+        <v>55</v>
+      </c>
+      <c r="M5" s="8">
+        <f>(BenoitClemenceau!D5+ChinmayBhelke!D5+BharatGogineni!D5+TainaConde!D5+RuiqiChang!D5)</f>
+        <v>58</v>
+      </c>
+      <c r="N5" s="8">
+        <f>(BenoitClemenceau!E5+ChinmayBhelke!E5+BharatGogineni!E5+TainaConde!E5+RuiqiChang!E5)</f>
+        <v>31</v>
+      </c>
+      <c r="O5" s="9">
+        <f>(BenoitClemenceau!G5+ChinmayBhelke!G5+BharatGogineni!G5+TainaConde!G5+RuiqiChang!G5)</f>
+        <v>19</v>
+      </c>
+      <c r="P5" s="9">
+        <f>(BenoitClemenceau!H5+ChinmayBhelke!H5+BharatGogineni!H5+TainaConde!H5+RuiqiChang!H5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>(BenoitClemenceau!I5+ChinmayBhelke!I5+BharatGogineni!I5+TainaConde!I5+RuiqiChang!I5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="R5" s="9">
+        <f>(BenoitClemenceau!J5+ChinmayBhelke!J5+BharatGogineni!J5+TainaConde!J5+RuiqiChang!J5)</f>
+        <v>6</v>
+      </c>
+      <c r="S5" s="9">
+        <f>(BenoitClemenceau!K5+ChinmayBhelke!K5+BharatGogineni!K5+TainaConde!K5+RuiqiChang!K5)</f>
+        <v>4</v>
+      </c>
+      <c r="T5" s="9">
+        <f>(BenoitClemenceau!L5+ChinmayBhelke!L5+BharatGogineni!L5+TainaConde!L5+RuiqiChang!L5)</f>
+        <v>9.5</v>
+      </c>
+      <c r="U5" s="9">
+        <f>(BenoitClemenceau!M5+ChinmayBhelke!M5+BharatGogineni!M5+TainaConde!M5+RuiqiChang!M5)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6">
         <v>2.0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>(BenoitClemenceau!C6+ChinmayBhelke!C6+BharatGogineni!C6+TainaConde!C6+RuiqiChang!C6)</f>
+        <v>62</v>
+      </c>
+      <c r="M6" s="8">
+        <f>(BenoitClemenceau!D6+ChinmayBhelke!D6+BharatGogineni!D6+TainaConde!D6+RuiqiChang!D6)</f>
+        <v>51</v>
+      </c>
+      <c r="N6" s="8">
+        <f>(BenoitClemenceau!E6+ChinmayBhelke!E6+BharatGogineni!E6+TainaConde!E6+RuiqiChang!E6)</f>
+        <v>34</v>
+      </c>
+      <c r="O6" s="9">
+        <f>(BenoitClemenceau!G6+ChinmayBhelke!G6+BharatGogineni!G6+TainaConde!G6+RuiqiChang!G6)</f>
+        <v>21</v>
+      </c>
+      <c r="P6" s="9">
+        <f>(BenoitClemenceau!H6+ChinmayBhelke!H6+BharatGogineni!H6+TainaConde!H6+RuiqiChang!H6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>(BenoitClemenceau!I6+ChinmayBhelke!I6+BharatGogineni!I6+TainaConde!I6+RuiqiChang!I6)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R6" s="9">
+        <f>(BenoitClemenceau!J6+ChinmayBhelke!J6+BharatGogineni!J6+TainaConde!J6+RuiqiChang!J6)</f>
+        <v>12</v>
+      </c>
+      <c r="S6" s="9">
+        <f>(BenoitClemenceau!K6+ChinmayBhelke!K6+BharatGogineni!K6+TainaConde!K6+RuiqiChang!K6)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="9">
+        <f>(BenoitClemenceau!L6+ChinmayBhelke!L6+BharatGogineni!L6+TainaConde!L6+RuiqiChang!L6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="9">
+        <f>(BenoitClemenceau!M6+ChinmayBhelke!M6+BharatGogineni!M6+TainaConde!M6+RuiqiChang!M6)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6">
@@ -2270,84 +2476,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3384,70 +3590,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -3471,22 +3677,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -3497,66 +3703,66 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>1.0</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="20">
         <v>3.0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <v>1.0</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20">
         <v>0.5</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="20">
         <v>1.0</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="19">
+      <c r="O4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="20">
         <v>6.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="6"/>
@@ -8266,66 +8472,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -8349,73 +8555,73 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>0.5</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
@@ -8425,13 +8631,13 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="23">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -8439,7 +8645,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7">
         <v>4.0</v>
@@ -8459,13 +8665,13 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -8477,13 +8683,13 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="23">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -8491,7 +8697,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -8506,12 +8712,12 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="S6" s="7">
         <v>20.0</v>
@@ -12762,66 +12968,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -12845,73 +13051,73 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>0.5</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
@@ -12921,7 +13127,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>12.0</v>
@@ -12934,7 +13140,7 @@
         <v>24.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7">
         <v>5.0</v>
@@ -12960,17 +13166,17 @@
       <c r="N5" s="7">
         <v>0.0</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>79</v>
+      <c r="O5" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -12982,7 +13188,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8">
         <v>12.0</v>
@@ -12995,7 +13201,7 @@
         <v>24.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G6" s="7">
         <v>6.0</v>
@@ -13021,17 +13227,17 @@
       <c r="N6" s="7">
         <v>0.0</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>85</v>
+      <c r="O6" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="S6" s="7">
         <v>8.0</v>
@@ -17283,70 +17489,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -17370,22 +17576,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -17396,97 +17602,187 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="23">
         <v>1.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="23">
         <v>2.0</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>1.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="22">
+      <c r="O4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="23">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="23">
         <v>8.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D6" si="1">G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="7">
+        <v>12.0</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="7">
+        <v>8.0</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -22163,70 +22459,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -22250,22 +22546,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -22276,77 +22572,77 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>14.5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>10.5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>2.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>3.0</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="O4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>2.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="23">
+        <v>115</v>
+      </c>
+      <c r="C5" s="9">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="9">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
@@ -22354,7 +22650,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7">
         <v>3.0</v>
@@ -22373,16 +22669,16 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -22396,13 +22692,13 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="23">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="9">
         <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
@@ -22410,7 +22706,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -22433,16 +22729,16 @@
         <v>0.5</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="S6" s="7">
         <v>15.0</v>
@@ -27123,70 +27419,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -27210,22 +27506,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -27236,113 +27532,113 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="23">
         <v>2.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>2.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>1.0</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="23">
         <v>15.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>2.0</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="23">
         <v>2.0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="F5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="23">
         <v>2.0</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="20">
         <v>3.0</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="20">
         <v>2.0</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="22">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="23">
         <v>0.5</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="23">
         <v>1.0</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="S5" s="22">
+      <c r="N5" s="20"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="23">
         <v>20.0</v>
       </c>
       <c r="T5" s="6"/>
@@ -27350,57 +27646,57 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>3.0</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="20">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>2.5</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="F6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="23">
         <v>3.0</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23">
         <v>2.5</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="22">
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="23">
         <v>1.0</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="23">
         <v>0.5</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
         <v>0.5</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="S6" s="22">
+      <c r="O6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="23">
         <v>15.0</v>
       </c>
       <c r="T6" s="6"/>
